--- a/Tickets/Normal Tickets/Ticket 40299 - Talend Jobs/Mapping SC.xlsx
+++ b/Tickets/Normal Tickets/Ticket 40299 - Talend Jobs/Mapping SC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/717057b091e969c7/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 40299 - Talend Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7EF8B105-DF82-4874-9689-0C6680628BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085360C2-315D-4316-9094-A27E7D3206CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1B8C8E-EAB5-4A05-B296-9384B5DBDA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A901CBB-0317-4CF9-92D2-77C601542114}"/>
+    <workbookView xWindow="-120" yWindow="-32520" windowWidth="29040" windowHeight="15720" xr2:uid="{8A901CBB-0317-4CF9-92D2-77C601542114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t xml:space="preserve">Tablename </t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Implemented</t>
+  </si>
+  <si>
+    <t>SC_FRAMESTYLE</t>
+  </si>
+  <si>
+    <t>SC_FrameStyel_CushionStyle</t>
+  </si>
+  <si>
+    <t>CusSorMasterPlus</t>
+  </si>
+  <si>
+    <t>ADMOPERATOR_PLUS</t>
   </si>
 </sst>
 </file>
@@ -610,42 +622,42 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
@@ -668,7 +680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -693,7 +705,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -716,9 +728,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -733,7 +747,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -748,7 +762,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -763,7 +777,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -774,7 +788,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -797,9 +811,11 @@
         <v>8</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -814,7 +830,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -829,7 +845,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -844,7 +860,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -859,7 +875,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -870,7 +886,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>3</v>
       </c>
@@ -893,9 +909,11 @@
         <v>20</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -910,7 +928,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -925,7 +943,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -940,7 +958,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -955,7 +973,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -970,7 +988,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -981,7 +999,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -1002,9 +1020,11 @@
       <c r="H24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1015,7 +1035,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>5</v>
       </c>
@@ -1038,9 +1058,11 @@
         <v>32</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1053,7 +1075,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1064,7 +1086,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>6</v>
       </c>
@@ -1085,9 +1107,11 @@
         <v>40</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1098,7 +1122,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>7</v>
       </c>
@@ -1119,9 +1143,11 @@
         <v>40</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1132,7 +1158,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>8</v>
       </c>
@@ -1153,9 +1179,11 @@
         <v>40</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1166,7 +1194,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>9</v>
       </c>
@@ -1187,9 +1215,11 @@
         <v>40</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1200,7 +1230,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>10</v>
       </c>
@@ -1221,7 +1251,9 @@
         <v>40</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
